--- a/phd log.xlsx
+++ b/phd log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aa3506phd/Documents/GitHub/DLTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aa3506phd/Documents/GitHub/DLTesting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F586D2-EDE3-DB4E-B587-1691A8C8BF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21417E98-6F87-4A44-9569-6CC528217046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2220" yWindow="740" windowWidth="30200" windowHeight="7660" activeTab="8" xr2:uid="{3501180D-D5B0-7C4E-9FFF-7A2A8DAF30CC}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="5" xr2:uid="{3501180D-D5B0-7C4E-9FFF-7A2A8DAF30CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="212">
   <si>
     <t>Paper</t>
   </si>
@@ -636,20 +636,6 @@
   </si>
   <si>
     <r>
-      <t>Coarse Granularity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;br&gt;Existing coverage criteria are often coarse-grained, offering a broad overview that lacks detail and may miss subtle yet important aspects of model behavior.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="14"/>
@@ -821,20 +807,6 @@
         <family val="2"/>
       </rPr>
       <t>: Identifies specific weaknesses and areas of uncertainty, offering clear directions for enhancing model robustness.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Limited Scalability and Flexibility</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Many criteria are not scalable or adaptable across diverse model architectures.</t>
     </r>
   </si>
   <si>
@@ -1406,6 +1378,20 @@
   </si>
   <si>
     <t>Rotation -45</t>
+  </si>
+  <si>
+    <t>Coarse Granularity&lt;br&gt;Existing coverage criteria are often coarse-grained, offering a broad overview that lacks detail and may miss subtle yet important aspects of model behavior.</t>
+  </si>
+  <si>
+    <t>Limited Scalability and Flexibility: Many criteria are not scalable or adaptable across diverse model architectures.</t>
+  </si>
+  <si>
+    <t>We note that,
+for neuron coverage [13], a high coverage can be easily achieved by selecting a few
+non-adversarial test cases that we generated.</t>
+  </si>
+  <si>
+    <t>Sun, Y., Huang, X., Kroening, D., Sharp, J., Hill, M. and Ashmore, R., 2018. Testing deep neural networks. arXiv preprint arXiv:1803.04792.</t>
   </si>
 </sst>
 </file>
@@ -2073,6 +2059,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2109,20 +2097,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2131,29 +2125,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3158,7 +3144,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="63">
       <c r="A1" s="68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3166,7 +3152,7 @@
     </row>
     <row r="3" spans="1:1" ht="20">
       <c r="A3" s="67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3174,12 +3160,12 @@
     </row>
     <row r="5" spans="1:1" ht="42">
       <c r="A5" s="78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="42">
       <c r="A6" s="78" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -3187,7 +3173,7 @@
     </row>
     <row r="8" spans="1:1" ht="20">
       <c r="A8" s="67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -3195,12 +3181,12 @@
     </row>
     <row r="10" spans="1:1" ht="42">
       <c r="A10" s="78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="42">
       <c r="A11" s="78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -3208,7 +3194,7 @@
     </row>
     <row r="13" spans="1:1" ht="20">
       <c r="A13" s="67" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -3216,17 +3202,17 @@
     </row>
     <row r="15" spans="1:1" ht="42">
       <c r="A15" s="78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="42">
       <c r="A16" s="78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="42">
       <c r="A17" s="78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3234,7 +3220,7 @@
     </row>
     <row r="19" spans="1:1" ht="20">
       <c r="A19" s="67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -3242,12 +3228,12 @@
     </row>
     <row r="21" spans="1:1" ht="42">
       <c r="A21" s="78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="42">
       <c r="A22" s="78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -3255,7 +3241,7 @@
     </row>
     <row r="24" spans="1:1" ht="20">
       <c r="A24" s="67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -3263,12 +3249,12 @@
     </row>
     <row r="26" spans="1:1" ht="42">
       <c r="A26" s="78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="42">
       <c r="A27" s="78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3292,40 +3278,40 @@
   <sheetData>
     <row r="1" spans="1:2" s="63" customFormat="1" ht="20">
       <c r="A1" s="79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19">
       <c r="A3" s="73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19">
       <c r="A4" s="73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19">
       <c r="A5" s="73" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19">
       <c r="A6" s="73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19">
       <c r="A7" s="73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="31">
       <c r="A16" s="80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3350,44 +3336,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="98" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
+      <c r="A1" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
     </row>
     <row r="2" spans="1:8" ht="17" thickBot="1"/>
     <row r="3" spans="1:8" ht="25" thickBot="1">
       <c r="A3" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
+      <c r="B3" s="111" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
     </row>
     <row r="4" spans="1:8" ht="17" thickBot="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
     </row>
     <row r="5" spans="1:8" ht="20" thickBot="1">
       <c r="A5" s="83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5" s="84" t="s">
         <v>60</v>
@@ -3407,13 +3393,13 @@
     </row>
     <row r="6" spans="1:8" ht="17" thickBot="1">
       <c r="A6" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="82" t="s">
         <v>170</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>172</v>
       </c>
       <c r="D6" s="82"/>
       <c r="E6" s="82"/>
@@ -3423,16 +3409,16 @@
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1">
       <c r="A7" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="82" t="s">
+      <c r="D7" s="82" t="s">
         <v>175</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>177</v>
       </c>
       <c r="E7" s="82"/>
       <c r="F7" s="82"/>
@@ -3467,232 +3453,232 @@
     <row r="2" spans="1:5" hidden="1"/>
     <row r="3" spans="1:5" hidden="1"/>
     <row r="4" spans="1:5" s="11" customFormat="1" ht="409" customHeight="1">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="89"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="89"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="89"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="89"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="89"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="89"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="89"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="89"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="89"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="89"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="89"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="89"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="89"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="89"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="89"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="89"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="89"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="89"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="89"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="89"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="89"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="89"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="89"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="89"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="89"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="89"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="89"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="89"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="89"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="89"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="89"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3777,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A545AE1-FA82-1F4F-9A5A-22BF3934D56C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3792,13 +3778,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="55" customFormat="1" ht="30" thickBot="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
       <c r="F1" s="77"/>
       <c r="G1" s="56"/>
       <c r="H1" s="56"/>
@@ -3815,13 +3801,13 @@
       <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:19" s="58" customFormat="1" ht="20" thickBot="1">
-      <c r="A2" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="A2" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="57"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
@@ -3870,7 +3856,7 @@
         <v>69</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="53" customFormat="1" ht="60">
@@ -3881,7 +3867,7 @@
         <v>64</v>
       </c>
       <c r="F6" s="76" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="53" customFormat="1" ht="60">
@@ -3892,7 +3878,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="53" customFormat="1" ht="40">
@@ -3903,7 +3889,7 @@
         <v>66</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="53" customFormat="1" ht="80">
@@ -3914,7 +3900,7 @@
         <v>67</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="53" customFormat="1" ht="40">
@@ -3925,42 +3911,42 @@
         <v>75</v>
       </c>
       <c r="F10" s="76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="20">
       <c r="F11" s="76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="20">
       <c r="F12" s="76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="20">
       <c r="F16" s="76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20">
       <c r="F17" s="76" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20">
       <c r="F18" s="76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20">
       <c r="F19" s="76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20">
       <c r="F20" s="76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4002,30 +3988,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="54" customFormat="1" ht="24">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
@@ -4054,10 +4040,10 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="6:6">
@@ -4073,10 +4059,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE159DD-0CDA-584D-A78B-597E790F90EB}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4112,10 +4098,10 @@
     </row>
     <row r="3" spans="6:9" ht="57">
       <c r="F3" s="69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H3" s="70" t="s">
         <v>76</v>
@@ -4126,10 +4112,10 @@
     </row>
     <row r="4" spans="6:9" ht="63">
       <c r="F4" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="69" t="s">
         <v>96</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>97</v>
       </c>
       <c r="H4" s="70" t="s">
         <v>77</v>
@@ -4140,10 +4126,10 @@
     </row>
     <row r="5" spans="6:9" ht="57">
       <c r="F5" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="69" t="s">
         <v>98</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>99</v>
       </c>
       <c r="H5" s="70" t="s">
         <v>78</v>
@@ -4154,10 +4140,10 @@
     </row>
     <row r="6" spans="6:9" ht="57">
       <c r="F6" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="69" t="s">
         <v>100</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>101</v>
       </c>
       <c r="H6" s="70" t="s">
         <v>79</v>
@@ -4168,10 +4154,10 @@
     </row>
     <row r="7" spans="6:9" ht="63">
       <c r="F7" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="69" t="s">
         <v>102</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>103</v>
       </c>
       <c r="H7" s="70" t="s">
         <v>80</v>
@@ -4182,10 +4168,10 @@
     </row>
     <row r="8" spans="6:9" ht="57">
       <c r="F8" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="69" t="s">
         <v>104</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>105</v>
       </c>
       <c r="H8" s="70" t="s">
         <v>81</v>
@@ -4196,10 +4182,10 @@
     </row>
     <row r="9" spans="6:9" ht="57">
       <c r="F9" s="69" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H9" s="70" t="s">
         <v>82</v>
@@ -4215,12 +4201,20 @@
     </row>
     <row r="11" spans="6:9" ht="76">
       <c r="F11" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="69" t="s">
-        <v>94</v>
-      </c>
       <c r="I11" s="71"/>
+    </row>
+    <row r="16" spans="6:9" ht="51">
+      <c r="F16" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4243,60 +4237,60 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26">
       <c r="A1" s="72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="84">
       <c r="A4" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>112</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="63">
       <c r="A5" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>113</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="105">
       <c r="A6" s="73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="84">
       <c r="A7" s="73" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="84">
       <c r="A8" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26">
       <c r="A13" s="72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="21">
       <c r="A15" s="75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4321,37 +4315,37 @@
   <sheetData>
     <row r="1" spans="3:10">
       <c r="C1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="3:10">
       <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
         <v>123</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>124</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>125</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>126</v>
-      </c>
-      <c r="I2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="3:10">
       <c r="D3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="3:10">
       <c r="D4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4363,7 +4357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E805A165-6224-504A-8922-C25CE2E36B22}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+    <sheetView topLeftCell="E4" workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
@@ -4377,529 +4371,542 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="E1" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="F1" s="107" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="103" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="107"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+    </row>
+    <row r="3" spans="1:20" ht="17" customHeight="1">
+      <c r="A3" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="B3" s="101" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="103"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-    </row>
-    <row r="3" spans="1:20" ht="17" customHeight="1">
-      <c r="A3" s="106" t="s">
+      <c r="C3" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="D3" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="E3" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="F3" s="104" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="100"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+    </row>
+    <row r="5" spans="1:20" ht="17" customHeight="1">
+      <c r="A5" s="100"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="H5" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="86">
+        <v>0</v>
+      </c>
+      <c r="L5" s="86">
+        <v>1</v>
+      </c>
+      <c r="M5" s="86">
+        <v>2</v>
+      </c>
+      <c r="N5" s="86">
+        <v>3</v>
+      </c>
+      <c r="O5" s="86">
+        <v>4</v>
+      </c>
+      <c r="P5" s="86">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="86">
+        <v>6</v>
+      </c>
+      <c r="R5" s="86">
+        <v>7</v>
+      </c>
+      <c r="S5" s="86">
+        <v>8</v>
+      </c>
+      <c r="T5" s="86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="100"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="H6" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="87">
+        <v>0.96</v>
+      </c>
+      <c r="K6" s="86">
+        <v>100</v>
+      </c>
+      <c r="L6" s="86">
+        <v>96</v>
+      </c>
+      <c r="M6" s="86">
+        <v>98</v>
+      </c>
+      <c r="N6" s="86">
+        <v>92</v>
+      </c>
+      <c r="O6" s="86">
+        <v>93</v>
+      </c>
+      <c r="P6" s="86">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="86">
+        <v>88</v>
+      </c>
+      <c r="R6" s="86">
+        <v>99</v>
+      </c>
+      <c r="S6" s="86">
+        <v>98</v>
+      </c>
+      <c r="T6" s="86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="17" customHeight="1">
+      <c r="A7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="H7" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="86">
+        <v>99</v>
+      </c>
+      <c r="L7" s="86">
+        <v>64</v>
+      </c>
+      <c r="M7" s="86">
+        <v>23</v>
+      </c>
+      <c r="N7" s="86">
+        <v>38</v>
+      </c>
+      <c r="O7" s="86">
+        <v>40</v>
+      </c>
+      <c r="P7" s="86">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="86">
+        <v>54</v>
+      </c>
+      <c r="R7" s="86">
+        <v>24</v>
+      </c>
+      <c r="S7" s="86">
+        <v>40</v>
+      </c>
+      <c r="T7" s="86">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="100"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="H8" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="87">
+        <v>0.94</v>
+      </c>
+      <c r="K8" s="86">
+        <v>99</v>
+      </c>
+      <c r="L8" s="86">
+        <v>100</v>
+      </c>
+      <c r="M8" s="86">
+        <v>93</v>
+      </c>
+      <c r="N8" s="86">
+        <v>96</v>
+      </c>
+      <c r="O8" s="86">
+        <v>99</v>
+      </c>
+      <c r="P8" s="86">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="86">
+        <v>95</v>
+      </c>
+      <c r="R8" s="86">
+        <v>98</v>
+      </c>
+      <c r="S8" s="86">
+        <v>61</v>
+      </c>
+      <c r="T8" s="86">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="100"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="H9" s="86" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="87">
+        <v>0.88</v>
+      </c>
+      <c r="K9" s="86">
+        <v>100</v>
+      </c>
+      <c r="L9" s="86">
+        <v>100</v>
+      </c>
+      <c r="M9" s="86">
+        <v>95</v>
+      </c>
+      <c r="N9" s="86">
+        <v>98</v>
+      </c>
+      <c r="O9" s="86">
+        <v>98</v>
+      </c>
+      <c r="P9" s="86">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="86">
+        <v>98</v>
+      </c>
+      <c r="R9" s="86">
+        <v>96</v>
+      </c>
+      <c r="S9" s="86">
+        <v>97</v>
+      </c>
+      <c r="T9" s="86">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="100"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="H10" s="86" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="J10" s="87">
+        <v>0.96</v>
+      </c>
+      <c r="K10" s="86">
+        <v>100</v>
+      </c>
+      <c r="L10" s="86">
+        <v>100</v>
+      </c>
+      <c r="M10" s="86">
+        <v>98</v>
+      </c>
+      <c r="N10" s="86">
+        <v>97</v>
+      </c>
+      <c r="O10" s="86">
+        <v>100</v>
+      </c>
+      <c r="P10" s="86">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="86">
+        <v>99</v>
+      </c>
+      <c r="R10" s="86">
+        <v>100</v>
+      </c>
+      <c r="S10" s="86">
+        <v>74</v>
+      </c>
+      <c r="T10" s="86">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="100"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="100"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="100"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="100"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="100"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="100"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="100"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="100"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="100"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="B20" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="108" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="106"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-    </row>
-    <row r="5" spans="1:20" ht="17" customHeight="1">
-      <c r="A5" s="106"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="H5" s="113" t="s">
-        <v>208</v>
-      </c>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113" t="s">
-        <v>207</v>
-      </c>
-      <c r="K5" s="113">
-        <v>0</v>
-      </c>
-      <c r="L5" s="113">
-        <v>1</v>
-      </c>
-      <c r="M5" s="113">
-        <v>2</v>
-      </c>
-      <c r="N5" s="113">
-        <v>3</v>
-      </c>
-      <c r="O5" s="113">
-        <v>4</v>
-      </c>
-      <c r="P5" s="113">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="113">
-        <v>6</v>
-      </c>
-      <c r="R5" s="113">
-        <v>7</v>
-      </c>
-      <c r="S5" s="113">
-        <v>8</v>
-      </c>
-      <c r="T5" s="113">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="106"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="H6" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="I6" s="113" t="s">
-        <v>186</v>
-      </c>
-      <c r="J6" s="114">
-        <v>0.96</v>
-      </c>
-      <c r="K6" s="113">
-        <v>100</v>
-      </c>
-      <c r="L6" s="113">
-        <v>96</v>
-      </c>
-      <c r="M6" s="113">
-        <v>98</v>
-      </c>
-      <c r="N6" s="113">
-        <v>92</v>
-      </c>
-      <c r="O6" s="113">
-        <v>93</v>
-      </c>
-      <c r="P6" s="113">
-        <v>95</v>
-      </c>
-      <c r="Q6" s="113">
-        <v>88</v>
-      </c>
-      <c r="R6" s="113">
-        <v>99</v>
-      </c>
-      <c r="S6" s="113">
-        <v>98</v>
-      </c>
-      <c r="T6" s="113">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="17" customHeight="1">
-      <c r="A7" s="106"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="H7" s="113" t="s">
-        <v>203</v>
-      </c>
-      <c r="I7" s="113" t="s">
-        <v>209</v>
-      </c>
-      <c r="J7" s="114">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="113">
-        <v>99</v>
-      </c>
-      <c r="L7" s="113">
-        <v>64</v>
-      </c>
-      <c r="M7" s="113">
-        <v>23</v>
-      </c>
-      <c r="N7" s="113">
-        <v>38</v>
-      </c>
-      <c r="O7" s="113">
-        <v>40</v>
-      </c>
-      <c r="P7" s="113">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="113">
-        <v>54</v>
-      </c>
-      <c r="R7" s="113">
-        <v>24</v>
-      </c>
-      <c r="S7" s="113">
-        <v>40</v>
-      </c>
-      <c r="T7" s="113">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="106"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="H8" s="113" t="s">
-        <v>204</v>
-      </c>
-      <c r="I8" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="J8" s="114">
-        <v>0.94</v>
-      </c>
-      <c r="K8" s="113">
-        <v>99</v>
-      </c>
-      <c r="L8" s="113">
-        <v>100</v>
-      </c>
-      <c r="M8" s="113">
-        <v>93</v>
-      </c>
-      <c r="N8" s="113">
-        <v>96</v>
-      </c>
-      <c r="O8" s="113">
-        <v>99</v>
-      </c>
-      <c r="P8" s="113">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="113">
-        <v>95</v>
-      </c>
-      <c r="R8" s="113">
-        <v>98</v>
-      </c>
-      <c r="S8" s="113">
-        <v>61</v>
-      </c>
-      <c r="T8" s="113">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="106"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="H9" s="113" t="s">
-        <v>205</v>
-      </c>
-      <c r="I9" s="113" t="s">
-        <v>200</v>
-      </c>
-      <c r="J9" s="114">
-        <v>0.88</v>
-      </c>
-      <c r="K9" s="113">
-        <v>100</v>
-      </c>
-      <c r="L9" s="113">
-        <v>100</v>
-      </c>
-      <c r="M9" s="113">
-        <v>95</v>
-      </c>
-      <c r="N9" s="113">
-        <v>98</v>
-      </c>
-      <c r="O9" s="113">
-        <v>98</v>
-      </c>
-      <c r="P9" s="113">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="113">
-        <v>98</v>
-      </c>
-      <c r="R9" s="113">
-        <v>96</v>
-      </c>
-      <c r="S9" s="113">
-        <v>97</v>
-      </c>
-      <c r="T9" s="113">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="106"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="H10" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" s="113" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" s="114">
-        <v>0.96</v>
-      </c>
-      <c r="K10" s="113">
-        <v>100</v>
-      </c>
-      <c r="L10" s="113">
-        <v>100</v>
-      </c>
-      <c r="M10" s="113">
-        <v>98</v>
-      </c>
-      <c r="N10" s="113">
-        <v>97</v>
-      </c>
-      <c r="O10" s="113">
-        <v>100</v>
-      </c>
-      <c r="P10" s="113">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="113">
-        <v>99</v>
-      </c>
-      <c r="R10" s="113">
-        <v>100</v>
-      </c>
-      <c r="S10" s="113">
-        <v>74</v>
-      </c>
-      <c r="T10" s="113">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="106"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="106"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="106"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="106"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="106"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="106"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="106"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="106"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="106"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="107" t="s">
+      <c r="C20" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="D20" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="106" t="s">
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="100" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="107" t="s">
+      <c r="D22" s="102"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="102"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="102"/>
+      <c r="B24" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="109"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="109"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="106" t="s">
+      <c r="C24" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="109"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="109"/>
-      <c r="B24" s="107" t="s">
+      <c r="D24" s="102"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="102"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="102"/>
+      <c r="B26" s="101" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C26" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="109"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="109"/>
-      <c r="B26" s="107" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="109"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="109"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="109"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="109"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F3:F31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="E3:E31"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D3:D19"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="B3:B19"/>
     <mergeCell ref="C3:C19"/>
@@ -4907,20 +4914,7 @@
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F3:F31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="E3:E31"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B20:B23"/>
     <mergeCell ref="A3:A19"/>
-    <mergeCell ref="D3:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/phd log.xlsx
+++ b/phd log.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aa3506phd/Documents/GitHub/DLTesting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21417E98-6F87-4A44-9569-6CC528217046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95356FE7-F218-8146-8A88-DACC2B6CEC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="5" xr2:uid="{3501180D-D5B0-7C4E-9FFF-7A2A8DAF30CC}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" activeTab="4" xr2:uid="{3501180D-D5B0-7C4E-9FFF-7A2A8DAF30CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Coverage Criteria" sheetId="4" r:id="rId4"/>
-    <sheet name="Test Case Generation Methods" sheetId="5" r:id="rId5"/>
-    <sheet name="Baysian probabilistic graph" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
-    <sheet name="Testcases" sheetId="12" r:id="rId9"/>
-    <sheet name="Sheet7" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet8" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet9" sheetId="11" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId5"/>
+    <sheet name="Test Case Generation Methods" sheetId="5" r:id="rId6"/>
+    <sheet name="Baysian probabilistic graph" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId9"/>
+    <sheet name="Testcases" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId11"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2097,33 +2098,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3132,6 +3133,573 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E805A165-6224-504A-8922-C25CE2E36B22}">
+  <dimension ref="A1:T31"/>
+  <sheetViews>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="16" customHeight="1">
+      <c r="A1" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="100" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="100"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+    </row>
+    <row r="3" spans="1:20" ht="17" customHeight="1">
+      <c r="A3" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="109" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="109"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+    </row>
+    <row r="5" spans="1:20" ht="17" customHeight="1">
+      <c r="A5" s="109"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="H5" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="86">
+        <v>0</v>
+      </c>
+      <c r="L5" s="86">
+        <v>1</v>
+      </c>
+      <c r="M5" s="86">
+        <v>2</v>
+      </c>
+      <c r="N5" s="86">
+        <v>3</v>
+      </c>
+      <c r="O5" s="86">
+        <v>4</v>
+      </c>
+      <c r="P5" s="86">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="86">
+        <v>6</v>
+      </c>
+      <c r="R5" s="86">
+        <v>7</v>
+      </c>
+      <c r="S5" s="86">
+        <v>8</v>
+      </c>
+      <c r="T5" s="86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="109"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="H6" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="87">
+        <v>0.96</v>
+      </c>
+      <c r="K6" s="86">
+        <v>100</v>
+      </c>
+      <c r="L6" s="86">
+        <v>96</v>
+      </c>
+      <c r="M6" s="86">
+        <v>98</v>
+      </c>
+      <c r="N6" s="86">
+        <v>92</v>
+      </c>
+      <c r="O6" s="86">
+        <v>93</v>
+      </c>
+      <c r="P6" s="86">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="86">
+        <v>88</v>
+      </c>
+      <c r="R6" s="86">
+        <v>99</v>
+      </c>
+      <c r="S6" s="86">
+        <v>98</v>
+      </c>
+      <c r="T6" s="86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="17" customHeight="1">
+      <c r="A7" s="109"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="H7" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="86">
+        <v>99</v>
+      </c>
+      <c r="L7" s="86">
+        <v>64</v>
+      </c>
+      <c r="M7" s="86">
+        <v>23</v>
+      </c>
+      <c r="N7" s="86">
+        <v>38</v>
+      </c>
+      <c r="O7" s="86">
+        <v>40</v>
+      </c>
+      <c r="P7" s="86">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="86">
+        <v>54</v>
+      </c>
+      <c r="R7" s="86">
+        <v>24</v>
+      </c>
+      <c r="S7" s="86">
+        <v>40</v>
+      </c>
+      <c r="T7" s="86">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="109"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="H8" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="87">
+        <v>0.94</v>
+      </c>
+      <c r="K8" s="86">
+        <v>99</v>
+      </c>
+      <c r="L8" s="86">
+        <v>100</v>
+      </c>
+      <c r="M8" s="86">
+        <v>93</v>
+      </c>
+      <c r="N8" s="86">
+        <v>96</v>
+      </c>
+      <c r="O8" s="86">
+        <v>99</v>
+      </c>
+      <c r="P8" s="86">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="86">
+        <v>95</v>
+      </c>
+      <c r="R8" s="86">
+        <v>98</v>
+      </c>
+      <c r="S8" s="86">
+        <v>61</v>
+      </c>
+      <c r="T8" s="86">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="109"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="H9" s="86" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="87">
+        <v>0.88</v>
+      </c>
+      <c r="K9" s="86">
+        <v>100</v>
+      </c>
+      <c r="L9" s="86">
+        <v>100</v>
+      </c>
+      <c r="M9" s="86">
+        <v>95</v>
+      </c>
+      <c r="N9" s="86">
+        <v>98</v>
+      </c>
+      <c r="O9" s="86">
+        <v>98</v>
+      </c>
+      <c r="P9" s="86">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="86">
+        <v>98</v>
+      </c>
+      <c r="R9" s="86">
+        <v>96</v>
+      </c>
+      <c r="S9" s="86">
+        <v>97</v>
+      </c>
+      <c r="T9" s="86">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="109"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="H10" s="86" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="J10" s="87">
+        <v>0.96</v>
+      </c>
+      <c r="K10" s="86">
+        <v>100</v>
+      </c>
+      <c r="L10" s="86">
+        <v>100</v>
+      </c>
+      <c r="M10" s="86">
+        <v>98</v>
+      </c>
+      <c r="N10" s="86">
+        <v>97</v>
+      </c>
+      <c r="O10" s="86">
+        <v>100</v>
+      </c>
+      <c r="P10" s="86">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="86">
+        <v>99</v>
+      </c>
+      <c r="R10" s="86">
+        <v>100</v>
+      </c>
+      <c r="S10" s="86">
+        <v>74</v>
+      </c>
+      <c r="T10" s="86">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="109"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="109"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="109"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="109"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="109"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="109"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="109"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="109"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="109"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="106" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="107"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="107"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="107"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="107"/>
+      <c r="B24" s="106" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="109" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="107"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="107"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="107"/>
+      <c r="B26" s="106" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="107"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="107"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="107"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="107"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="107"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A3:A19"/>
+    <mergeCell ref="F3:F31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="E3:E31"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D3:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="C3:C19"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C021006D-FE69-0546-AD7F-024F303CE7C3}">
   <dimension ref="A1:A27"/>
   <sheetViews>
@@ -3262,7 +3830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A19F57-5755-2147-A29D-1D5FD863E600}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -3319,7 +3887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3928B3-B15A-1645-92C1-B07684604CDD}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -3763,8 +4331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A545AE1-FA82-1F4F-9A5A-22BF3934D56C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView zoomScale="96" workbookViewId="0">
+      <selection activeCell="B10" sqref="A3:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3974,6 +4542,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638FB915-0B33-884A-B743-DB63D03A4AA2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51583B94-26AC-034F-A762-9AB4E322C97E}">
   <dimension ref="A1:V32"/>
   <sheetViews>
@@ -4057,11 +4637,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE159DD-0CDA-584D-A78B-597E790F90EB}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="87" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="87" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -4221,7 +4801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7733D784-4096-E448-B8EF-B1CC300AB62B}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -4298,7 +4878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F2E2AC-2FE8-C344-976C-F0ED1DE6078C}">
   <dimension ref="C1:J4"/>
   <sheetViews>
@@ -4351,571 +4931,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E805A165-6224-504A-8922-C25CE2E36B22}">
-  <dimension ref="A1:T31"/>
-  <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="71" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="16" customHeight="1">
-      <c r="A1" s="107" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="108" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="107" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="107" t="s">
-        <v>180</v>
-      </c>
-      <c r="F1" s="107" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="107"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-    </row>
-    <row r="3" spans="1:20" ht="17" customHeight="1">
-      <c r="A3" s="100" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="101" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="100" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="104" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="100"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-    </row>
-    <row r="5" spans="1:20" ht="17" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="H5" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="K5" s="86">
-        <v>0</v>
-      </c>
-      <c r="L5" s="86">
-        <v>1</v>
-      </c>
-      <c r="M5" s="86">
-        <v>2</v>
-      </c>
-      <c r="N5" s="86">
-        <v>3</v>
-      </c>
-      <c r="O5" s="86">
-        <v>4</v>
-      </c>
-      <c r="P5" s="86">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="86">
-        <v>6</v>
-      </c>
-      <c r="R5" s="86">
-        <v>7</v>
-      </c>
-      <c r="S5" s="86">
-        <v>8</v>
-      </c>
-      <c r="T5" s="86">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="100"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="H6" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="I6" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="J6" s="87">
-        <v>0.96</v>
-      </c>
-      <c r="K6" s="86">
-        <v>100</v>
-      </c>
-      <c r="L6" s="86">
-        <v>96</v>
-      </c>
-      <c r="M6" s="86">
-        <v>98</v>
-      </c>
-      <c r="N6" s="86">
-        <v>92</v>
-      </c>
-      <c r="O6" s="86">
-        <v>93</v>
-      </c>
-      <c r="P6" s="86">
-        <v>95</v>
-      </c>
-      <c r="Q6" s="86">
-        <v>88</v>
-      </c>
-      <c r="R6" s="86">
-        <v>99</v>
-      </c>
-      <c r="S6" s="86">
-        <v>98</v>
-      </c>
-      <c r="T6" s="86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="17" customHeight="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="H7" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="I7" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="J7" s="87">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="86">
-        <v>99</v>
-      </c>
-      <c r="L7" s="86">
-        <v>64</v>
-      </c>
-      <c r="M7" s="86">
-        <v>23</v>
-      </c>
-      <c r="N7" s="86">
-        <v>38</v>
-      </c>
-      <c r="O7" s="86">
-        <v>40</v>
-      </c>
-      <c r="P7" s="86">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="86">
-        <v>54</v>
-      </c>
-      <c r="R7" s="86">
-        <v>24</v>
-      </c>
-      <c r="S7" s="86">
-        <v>40</v>
-      </c>
-      <c r="T7" s="86">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="100"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="H8" s="86" t="s">
-        <v>202</v>
-      </c>
-      <c r="I8" s="86" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" s="87">
-        <v>0.94</v>
-      </c>
-      <c r="K8" s="86">
-        <v>99</v>
-      </c>
-      <c r="L8" s="86">
-        <v>100</v>
-      </c>
-      <c r="M8" s="86">
-        <v>93</v>
-      </c>
-      <c r="N8" s="86">
-        <v>96</v>
-      </c>
-      <c r="O8" s="86">
-        <v>99</v>
-      </c>
-      <c r="P8" s="86">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="86">
-        <v>95</v>
-      </c>
-      <c r="R8" s="86">
-        <v>98</v>
-      </c>
-      <c r="S8" s="86">
-        <v>61</v>
-      </c>
-      <c r="T8" s="86">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="100"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="H9" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="I9" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="87">
-        <v>0.88</v>
-      </c>
-      <c r="K9" s="86">
-        <v>100</v>
-      </c>
-      <c r="L9" s="86">
-        <v>100</v>
-      </c>
-      <c r="M9" s="86">
-        <v>95</v>
-      </c>
-      <c r="N9" s="86">
-        <v>98</v>
-      </c>
-      <c r="O9" s="86">
-        <v>98</v>
-      </c>
-      <c r="P9" s="86">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="86">
-        <v>98</v>
-      </c>
-      <c r="R9" s="86">
-        <v>96</v>
-      </c>
-      <c r="S9" s="86">
-        <v>97</v>
-      </c>
-      <c r="T9" s="86">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="100"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="H10" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="I10" s="86" t="s">
-        <v>199</v>
-      </c>
-      <c r="J10" s="87">
-        <v>0.96</v>
-      </c>
-      <c r="K10" s="86">
-        <v>100</v>
-      </c>
-      <c r="L10" s="86">
-        <v>100</v>
-      </c>
-      <c r="M10" s="86">
-        <v>98</v>
-      </c>
-      <c r="N10" s="86">
-        <v>97</v>
-      </c>
-      <c r="O10" s="86">
-        <v>100</v>
-      </c>
-      <c r="P10" s="86">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="86">
-        <v>99</v>
-      </c>
-      <c r="R10" s="86">
-        <v>100</v>
-      </c>
-      <c r="S10" s="86">
-        <v>74</v>
-      </c>
-      <c r="T10" s="86">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="100"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="100"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="100"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="100"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="100"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="100"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="100"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="100"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="100"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="101" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" s="101" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" s="101" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="102"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="102"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="100" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="102"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="102"/>
-      <c r="B24" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="100" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="102"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="102"/>
-      <c r="B26" s="101" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="100" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="102"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="102"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="102"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="102"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="103"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F3:F31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="E3:E31"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D3:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="B3:B19"/>
-    <mergeCell ref="C3:C19"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A3:A19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>